--- a/plantilla_ejemlo_1.xlsx
+++ b/plantilla_ejemlo_1.xlsx
@@ -1495,16 +1495,20 @@
           <t>D</t>
         </is>
       </c>
-      <c r="X2" s="42" t="n">
-        <v>13</v>
+      <c r="X2" s="42" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="Y2" s="65" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="Z2" s="49" t="n">
-        <v>12</v>
+      <c r="Z2" s="49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="AA2" s="192" t="n"/>
       <c r="AB2" s="65" t="inlineStr">
@@ -1513,8 +1517,10 @@
         </is>
       </c>
       <c r="AC2" s="192" t="n"/>
-      <c r="AD2" s="65" t="n">
-        <v>2024</v>
+      <c r="AD2" s="65" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="AE2" s="192" t="n"/>
     </row>
